--- a/original/ee_temp_Values_Sheet_AJ.xlsx
+++ b/original/ee_temp_Values_Sheet_AJ.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Jones\Dropbox\ee_temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/early_experience/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E793B507-D5A6-4CF8-BF5D-D2D5313549EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9763995-215A-394F-A58E-3DD65306D44D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{138D3E26-4561-4534-88B8-BFC6C6684761}"/>
+    <workbookView xWindow="2260" yWindow="1620" windowWidth="20740" windowHeight="16380" xr2:uid="{138D3E26-4561-4534-88B8-BFC6C6684761}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,12 +55,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -89,9 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,13 +423,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494D34A6-B501-4AAB-8B49-51535D5BC2F4}">
   <dimension ref="A1:B277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="G274" sqref="G274"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="A261" sqref="A261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>126</v>
       </c>
@@ -430,7 +445,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1313</v>
       </c>
@@ -438,7 +453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>113</v>
       </c>
@@ -446,7 +461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>75</v>
       </c>
@@ -454,7 +469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>79</v>
       </c>
@@ -462,7 +477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -470,7 +485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>256</v>
       </c>
@@ -478,7 +493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1015</v>
       </c>
@@ -486,7 +501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1134</v>
       </c>
@@ -494,7 +509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1605</v>
       </c>
@@ -502,7 +517,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1887</v>
       </c>
@@ -510,7 +525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1876</v>
       </c>
@@ -518,7 +533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>899</v>
       </c>
@@ -526,7 +541,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1725</v>
       </c>
@@ -534,7 +549,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -542,7 +557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1759</v>
       </c>
@@ -550,7 +565,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2217</v>
       </c>
@@ -558,7 +573,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>346</v>
       </c>
@@ -566,7 +581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2140</v>
       </c>
@@ -574,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2405</v>
       </c>
@@ -582,7 +597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2413</v>
       </c>
@@ -590,7 +605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2442</v>
       </c>
@@ -598,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2450</v>
       </c>
@@ -606,7 +621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2475</v>
       </c>
@@ -614,7 +629,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2514</v>
       </c>
@@ -622,7 +637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2675</v>
       </c>
@@ -630,7 +645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2706</v>
       </c>
@@ -638,7 +653,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2763</v>
       </c>
@@ -646,7 +661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2776</v>
       </c>
@@ -654,7 +669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2859</v>
       </c>
@@ -662,7 +677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3062</v>
       </c>
@@ -670,7 +685,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3069</v>
       </c>
@@ -678,7 +693,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3270</v>
       </c>
@@ -686,7 +701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3289</v>
       </c>
@@ -694,7 +709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3367</v>
       </c>
@@ -702,7 +717,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3486</v>
       </c>
@@ -710,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3587</v>
       </c>
@@ -718,7 +733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3709</v>
       </c>
@@ -726,7 +741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3787</v>
       </c>
@@ -734,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3993</v>
       </c>
@@ -742,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3994</v>
       </c>
@@ -750,7 +765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4005</v>
       </c>
@@ -758,7 +773,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4307</v>
       </c>
@@ -766,7 +781,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4328</v>
       </c>
@@ -774,7 +789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4424</v>
       </c>
@@ -782,7 +797,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4473</v>
       </c>
@@ -790,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4530</v>
       </c>
@@ -798,7 +813,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4672</v>
       </c>
@@ -806,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4950</v>
       </c>
@@ -814,7 +829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5016</v>
       </c>
@@ -822,7 +837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5206</v>
       </c>
@@ -830,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5240</v>
       </c>
@@ -838,7 +853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5400</v>
       </c>
@@ -846,7 +861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5889</v>
       </c>
@@ -854,7 +869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6008</v>
       </c>
@@ -862,7 +877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>6237</v>
       </c>
@@ -870,7 +885,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6261</v>
       </c>
@@ -878,7 +893,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6314</v>
       </c>
@@ -886,7 +901,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6331</v>
       </c>
@@ -894,7 +909,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6462</v>
       </c>
@@ -902,7 +917,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6518</v>
       </c>
@@ -910,7 +925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6692</v>
       </c>
@@ -918,7 +933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6871</v>
       </c>
@@ -926,7 +941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6892</v>
       </c>
@@ -934,7 +949,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>7017</v>
       </c>
@@ -942,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7088</v>
       </c>
@@ -950,7 +965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>7134</v>
       </c>
@@ -958,7 +973,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7165</v>
       </c>
@@ -966,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7228</v>
       </c>
@@ -974,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>7313</v>
       </c>
@@ -982,7 +997,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>7460</v>
       </c>
@@ -990,7 +1005,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>7775</v>
       </c>
@@ -998,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7786</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8079</v>
       </c>
@@ -1014,7 +1029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>8464</v>
       </c>
@@ -1022,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8526</v>
       </c>
@@ -1030,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>8587</v>
       </c>
@@ -1038,7 +1053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>8612</v>
       </c>
@@ -1046,7 +1061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8787</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8837</v>
       </c>
@@ -1062,7 +1077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8897</v>
       </c>
@@ -1070,7 +1085,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>9120</v>
       </c>
@@ -1078,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>9131</v>
       </c>
@@ -1086,7 +1101,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>9149</v>
       </c>
@@ -1094,7 +1109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>9603</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>9676</v>
       </c>
@@ -1110,7 +1125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9744</v>
       </c>
@@ -1118,7 +1133,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>9770</v>
       </c>
@@ -1126,7 +1141,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10005</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10094</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10271</v>
       </c>
@@ -1150,7 +1165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10302</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10455</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10665</v>
       </c>
@@ -1174,7 +1189,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10757</v>
       </c>
@@ -1182,7 +1197,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10809</v>
       </c>
@@ -1190,7 +1205,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10846</v>
       </c>
@@ -1198,7 +1213,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>11018</v>
       </c>
@@ -1206,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>11057</v>
       </c>
@@ -1214,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>11215</v>
       </c>
@@ -1222,7 +1237,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11300</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>11499</v>
       </c>
@@ -1238,7 +1253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>11928</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>12246</v>
       </c>
@@ -1254,7 +1269,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12269</v>
       </c>
@@ -1262,7 +1277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12464</v>
       </c>
@@ -1270,7 +1285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>12485</v>
       </c>
@@ -1278,7 +1293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12866</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>13076</v>
       </c>
@@ -1294,7 +1309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>13179</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>13256</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13378</v>
       </c>
@@ -1318,7 +1333,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13469</v>
       </c>
@@ -1326,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>13482</v>
       </c>
@@ -1334,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>13500</v>
       </c>
@@ -1342,7 +1357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>13542</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>13569</v>
       </c>
@@ -1358,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>13661</v>
       </c>
@@ -1366,7 +1381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>13663</v>
       </c>
@@ -1374,7 +1389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>13812</v>
       </c>
@@ -1382,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>14036</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>14040</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>14043</v>
       </c>
@@ -1406,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>14084</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>14101</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>14266</v>
       </c>
@@ -1430,7 +1445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>14292</v>
       </c>
@@ -1438,7 +1453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>14544</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>14792</v>
       </c>
@@ -1454,7 +1469,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>14870</v>
       </c>
@@ -1462,7 +1477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>14900</v>
       </c>
@@ -1470,7 +1485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>14951</v>
       </c>
@@ -1478,7 +1493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>15023</v>
       </c>
@@ -1486,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>15051</v>
       </c>
@@ -1494,7 +1509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15149</v>
       </c>
@@ -1502,7 +1517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>15217</v>
       </c>
@@ -1510,7 +1525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>15308</v>
       </c>
@@ -1518,7 +1533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>15700</v>
       </c>
@@ -1526,7 +1541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>15743</v>
       </c>
@@ -1534,7 +1549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>16119</v>
       </c>
@@ -1542,7 +1557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>16203</v>
       </c>
@@ -1550,7 +1565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>16353</v>
       </c>
@@ -1558,7 +1573,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>16468</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>16503</v>
       </c>
@@ -1574,7 +1589,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>16527</v>
       </c>
@@ -1582,7 +1597,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>16532</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>16583</v>
       </c>
@@ -1598,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>16594</v>
       </c>
@@ -1606,7 +1621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>16692</v>
       </c>
@@ -1614,7 +1629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>16694</v>
       </c>
@@ -1622,7 +1637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>17120</v>
       </c>
@@ -1630,7 +1645,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>17235</v>
       </c>
@@ -1638,7 +1653,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>17497</v>
       </c>
@@ -1646,7 +1661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>17938</v>
       </c>
@@ -1654,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>17981</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>18092</v>
       </c>
@@ -1670,7 +1685,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>18448</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>18480</v>
       </c>
@@ -1686,7 +1701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>18722</v>
       </c>
@@ -1694,7 +1709,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>18996</v>
       </c>
@@ -1702,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>19017</v>
       </c>
@@ -1710,7 +1725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>19318</v>
       </c>
@@ -1718,7 +1733,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>19381</v>
       </c>
@@ -1726,7 +1741,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>19481</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>19804</v>
       </c>
@@ -1742,7 +1757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>19912</v>
       </c>
@@ -1750,7 +1765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>19981</v>
       </c>
@@ -1758,7 +1773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>20017</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>20243</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>20610</v>
       </c>
@@ -1782,7 +1797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>20655</v>
       </c>
@@ -1790,7 +1805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>20877</v>
       </c>
@@ -1798,7 +1813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>21077</v>
       </c>
@@ -1806,7 +1821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>21192</v>
       </c>
@@ -1814,7 +1829,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>21260</v>
       </c>
@@ -1822,7 +1837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>21640</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>21761</v>
       </c>
@@ -1838,7 +1853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>21829</v>
       </c>
@@ -1846,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>22003</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>22044</v>
       </c>
@@ -1862,7 +1877,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>22224</v>
       </c>
@@ -1870,7 +1885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>22231</v>
       </c>
@@ -1878,7 +1893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>22255</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>22274</v>
       </c>
@@ -1894,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>22725</v>
       </c>
@@ -1902,7 +1917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>22804</v>
       </c>
@@ -1910,7 +1925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>23035</v>
       </c>
@@ -1918,7 +1933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>23338</v>
       </c>
@@ -1926,7 +1941,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>23374</v>
       </c>
@@ -1934,7 +1949,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>23565</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>23673</v>
       </c>
@@ -1950,7 +1965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>23786</v>
       </c>
@@ -1958,7 +1973,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>23984</v>
       </c>
@@ -1966,7 +1981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>24191</v>
       </c>
@@ -1974,7 +1989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>24601</v>
       </c>
@@ -1982,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>24710</v>
       </c>
@@ -1990,7 +2005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>24844</v>
       </c>
@@ -1998,7 +2013,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>24882</v>
       </c>
@@ -2006,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>24917</v>
       </c>
@@ -2014,7 +2029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>24941</v>
       </c>
@@ -2022,7 +2037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>24972</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>25092</v>
       </c>
@@ -2038,7 +2053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>25100</v>
       </c>
@@ -2046,7 +2061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>25114</v>
       </c>
@@ -2054,7 +2069,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>25150</v>
       </c>
@@ -2062,7 +2077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>25219</v>
       </c>
@@ -2070,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>25250</v>
       </c>
@@ -2078,7 +2093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>24329</v>
       </c>
@@ -2086,7 +2101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>25429</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>25659</v>
       </c>
@@ -2102,7 +2117,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>25664</v>
       </c>
@@ -2110,7 +2125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>26068</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>26179</v>
       </c>
@@ -2126,7 +2141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>26220</v>
       </c>
@@ -2134,7 +2149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>26405</v>
       </c>
@@ -2142,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>26413</v>
       </c>
@@ -2150,7 +2165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>26425</v>
       </c>
@@ -2158,7 +2173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>26600</v>
       </c>
@@ -2166,7 +2181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>26686</v>
       </c>
@@ -2174,7 +2189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>26699</v>
       </c>
@@ -2182,7 +2197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>26765</v>
       </c>
@@ -2190,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>26871</v>
       </c>
@@ -2198,7 +2213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>26882</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>26905</v>
       </c>
@@ -2214,7 +2229,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>27011</v>
       </c>
@@ -2222,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>27075</v>
       </c>
@@ -2230,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>27142</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>27181</v>
       </c>
@@ -2246,7 +2261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>27343</v>
       </c>
@@ -2254,7 +2269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>27416</v>
       </c>
@@ -2262,7 +2277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>27526</v>
       </c>
@@ -2270,7 +2285,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>27533</v>
       </c>
@@ -2278,7 +2293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>27658</v>
       </c>
@@ -2286,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>27665</v>
       </c>
@@ -2294,7 +2309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>27703</v>
       </c>
@@ -2302,7 +2317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>27821</v>
       </c>
@@ -2310,7 +2325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>27852</v>
       </c>
@@ -2318,7 +2333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>28036</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>28045</v>
       </c>
@@ -2334,7 +2349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>28127</v>
       </c>
@@ -2342,7 +2357,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>28175</v>
       </c>
@@ -2350,7 +2365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>28250</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>28262</v>
       </c>
@@ -2366,7 +2381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>28391</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>28657</v>
       </c>
@@ -2382,7 +2397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>28764</v>
       </c>
@@ -2390,15 +2405,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
         <v>28981</v>
       </c>
       <c r="B248">
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>28790</v>
       </c>
@@ -2406,7 +2421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>28980</v>
       </c>
@@ -2414,15 +2429,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
         <v>28981</v>
       </c>
       <c r="B251">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>28996</v>
       </c>
@@ -2430,7 +2445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>29140</v>
       </c>
@@ -2438,7 +2453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>29230</v>
       </c>
@@ -2446,7 +2461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>29462</v>
       </c>
@@ -2454,7 +2469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>29599</v>
       </c>
@@ -2462,7 +2477,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>29716</v>
       </c>
@@ -2470,7 +2485,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>29867</v>
       </c>
@@ -2478,15 +2493,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
         <v>29905</v>
       </c>
       <c r="B259">
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>29900</v>
       </c>
@@ -2494,15 +2509,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
         <v>29905</v>
       </c>
       <c r="B261">
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>29991</v>
       </c>
@@ -2510,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>30033</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>30065</v>
       </c>
@@ -2526,7 +2541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>30201</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>30356</v>
       </c>
@@ -2542,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>30645</v>
       </c>
@@ -2550,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>31249</v>
       </c>
@@ -2558,7 +2573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>31938</v>
       </c>
@@ -2566,7 +2581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>32096</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>32158</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>32269</v>
       </c>
@@ -2590,7 +2605,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>32322</v>
       </c>
@@ -2598,7 +2613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>32435</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>32715</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>32726</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>32734</v>
       </c>
